--- a/doc/Sprint tracking.xlsx
+++ b/doc/Sprint tracking.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertofalconi/Library/Mobile Documents/com~apple~CloudDocs/Università/Laboratorio di Architetture Software e Sicurezza Informatica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertofalconi/Laboratorio/Kalypso/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Overview" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
   <si>
     <t>PROJECT OVERVIEW</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Total Balance</t>
   </si>
   <si>
-    <t>Wireframe ID</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -276,100 +273,16 @@
     <t>Admin's newsletter sending</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>Mailing list subscription</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
     <t>Visualizing username in homepage</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>Admin's advice if website is down</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1033,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,17 +1078,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1229,6 +1142,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1340,8 +1254,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1341334064"/>
-        <c:axId val="1341378000"/>
+        <c:axId val="1248737424"/>
+        <c:axId val="1248741136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1530,11 +1444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1341334064"/>
-        <c:axId val="1341378000"/>
+        <c:axId val="1248737424"/>
+        <c:axId val="1248741136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1341334064"/>
+        <c:axId val="1248737424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,6 +1470,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="cross"/>
@@ -1571,7 +1486,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1341378000"/>
+        <c:crossAx val="1248741136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1579,7 +1494,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1341378000"/>
+        <c:axId val="1248741136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160.0"/>
@@ -1611,6 +1526,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1632,13 +1548,14 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1341334064"/>
+        <c:crossAx val="1248737424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1659,13 +1576,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>89959</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1432984</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1953,9 +1870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V85" sqref="V85"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1996,7 +1913,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="106" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="57"/>
@@ -2026,7 +1943,7 @@
       <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="103"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
       <c r="D3" s="68" t="s">
@@ -2058,42 +1975,42 @@
       <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="103"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="57"/>
       <c r="C4" s="72"/>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="97" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="57"/>
       <c r="C5" s="93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="70">
         <v>23</v>
@@ -2200,7 +2117,7 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="104" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="59" t="s">
@@ -2232,7 +2149,7 @@
       <c r="Z7" s="40"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="101"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
@@ -2264,17 +2181,17 @@
       <c r="Z8" s="43"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="74">
         <v>1</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="109"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="98"/>
       <c r="F9" s="57"/>
-      <c r="G9" s="108"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
@@ -2296,7 +2213,7 @@
       <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="101"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="31" t="s">
         <v>12</v>
       </c>
@@ -2311,10 +2228,10 @@
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
       <c r="R10" s="31"/>
@@ -2328,7 +2245,7 @@
       <c r="Z10" s="31"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="101"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="31" t="s">
         <v>15</v>
       </c>
@@ -2341,8 +2258,8 @@
       <c r="G11" s="33"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
@@ -2360,7 +2277,7 @@
       <c r="Z11" s="31"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="101"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="31" t="s">
         <v>17</v>
       </c>
@@ -2373,7 +2290,7 @@
       <c r="G12" s="33"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="110"/>
+      <c r="J12" s="99"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
@@ -2392,7 +2309,7 @@
       <c r="Z12" s="31"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="101"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="31" t="s">
         <v>18</v>
       </c>
@@ -2401,10 +2318,10 @@
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
@@ -2424,9 +2341,9 @@
       <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="101"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="74">
         <v>1</v>
@@ -2443,22 +2360,22 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
       <c r="O14" s="32"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="31"/>
       <c r="X14" s="32"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="101"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="75">
         <v>1</v>
@@ -2475,7 +2392,7 @@
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
-      <c r="P15" s="110"/>
+      <c r="P15" s="99"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="32"/>
       <c r="S15" s="57"/>
@@ -2488,7 +2405,7 @@
       <c r="Z15" s="32"/>
     </row>
     <row r="16" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="101"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="31"/>
       <c r="C16" s="64"/>
       <c r="D16" s="37"/>
@@ -2544,11 +2461,11 @@
       <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="1:26" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="102" t="s">
-        <v>38</v>
+      <c r="A18" s="105" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="51"/>
@@ -2576,7 +2493,7 @@
       <c r="Z18" s="53"/>
     </row>
     <row r="19" spans="1:26" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="102"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="31" t="s">
         <v>10</v>
       </c>
@@ -2608,7 +2525,7 @@
       <c r="Z19" s="56"/>
     </row>
     <row r="20" spans="1:26" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="102"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="31" t="s">
         <v>11</v>
       </c>
@@ -2616,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="37"/>
-      <c r="E20" s="110"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="36"/>
       <c r="G20" s="33"/>
       <c r="H20" s="56"/>
@@ -2640,7 +2557,7 @@
       <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="1:26" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="102"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="31" t="s">
         <v>12</v>
       </c>
@@ -2662,17 +2579,17 @@
       <c r="P21" s="57"/>
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
       <c r="W21" s="56"/>
       <c r="X21" s="56"/>
       <c r="Y21" s="57"/>
       <c r="Z21" s="56"/>
     </row>
     <row r="22" spans="1:26" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="102"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="31" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +2606,7 @@
       <c r="K22" s="56"/>
       <c r="L22" s="56"/>
       <c r="M22" s="57"/>
-      <c r="N22" s="110"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="56"/>
       <c r="P22" s="57"/>
       <c r="Q22" s="56"/>
@@ -2704,7 +2621,7 @@
       <c r="Z22" s="56"/>
     </row>
     <row r="23" spans="1:26" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="102"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="31" t="s">
         <v>17</v>
       </c>
@@ -2722,8 +2639,8 @@
       <c r="L23" s="56"/>
       <c r="M23" s="57"/>
       <c r="N23" s="56"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
       <c r="S23" s="57"/>
@@ -2736,7 +2653,7 @@
       <c r="Z23" s="56"/>
     </row>
     <row r="24" spans="1:26" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="102"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="31" t="s">
         <v>18</v>
       </c>
@@ -2751,11 +2668,11 @@
       <c r="I24" s="56"/>
       <c r="J24" s="57"/>
       <c r="K24" s="56"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
       <c r="Q24" s="56"/>
       <c r="R24" s="56"/>
       <c r="S24" s="57"/>
@@ -2768,9 +2685,9 @@
       <c r="Z24" s="56"/>
     </row>
     <row r="25" spans="1:26" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="102"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="74">
         <v>1</v>
@@ -2793,16 +2710,16 @@
       <c r="S25" s="57"/>
       <c r="T25" s="56"/>
       <c r="U25" s="56"/>
-      <c r="V25" s="110"/>
+      <c r="V25" s="99"/>
       <c r="W25" s="56"/>
       <c r="X25" s="56"/>
       <c r="Y25" s="57"/>
       <c r="Z25" s="56"/>
     </row>
     <row r="26" spans="1:26" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="102"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="75">
         <v>1</v>
@@ -2819,7 +2736,7 @@
       <c r="M26" s="57"/>
       <c r="N26" s="56"/>
       <c r="O26" s="56"/>
-      <c r="P26" s="110"/>
+      <c r="P26" s="99"/>
       <c r="Q26" s="56"/>
       <c r="R26" s="56"/>
       <c r="S26" s="57"/>
@@ -2832,7 +2749,7 @@
       <c r="Z26" s="56"/>
     </row>
     <row r="27" spans="1:26" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="102"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="61"/>
       <c r="C27" s="78"/>
       <c r="D27" s="37"/>
@@ -2888,11 +2805,11 @@
       <c r="Z28" s="19"/>
     </row>
     <row r="29" spans="1:26" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="101" t="s">
-        <v>40</v>
+      <c r="A29" s="104" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="69"/>
       <c r="D29" s="51"/>
@@ -2920,7 +2837,7 @@
       <c r="Z29" s="54"/>
     </row>
     <row r="30" spans="1:26" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="101"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="49" t="s">
         <v>10</v>
       </c>
@@ -2952,15 +2869,15 @@
       <c r="Z30" s="57"/>
     </row>
     <row r="31" spans="1:26" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="101"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="65">
         <v>1</v>
       </c>
       <c r="D31" s="46"/>
-      <c r="E31" s="110"/>
+      <c r="E31" s="99"/>
       <c r="F31" s="57"/>
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
@@ -2984,15 +2901,15 @@
       <c r="Z31" s="57"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="101"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="64">
         <v>1</v>
       </c>
       <c r="D32" s="46"/>
-      <c r="E32" s="110"/>
+      <c r="E32" s="99"/>
       <c r="F32" s="57"/>
       <c r="G32" s="57"/>
       <c r="H32" s="57"/>
@@ -3016,15 +2933,15 @@
       <c r="Z32" s="57"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="101"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="74">
         <v>1</v>
       </c>
       <c r="D33" s="44"/>
-      <c r="E33" s="110"/>
+      <c r="E33" s="99"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="32"/>
@@ -3048,7 +2965,7 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="101"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="31" t="s">
         <v>12</v>
       </c>
@@ -3074,13 +2991,13 @@
       <c r="T34" s="31"/>
       <c r="U34" s="31"/>
       <c r="V34" s="31"/>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
       <c r="Y34" s="31"/>
       <c r="Z34" s="31"/>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="101"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="31" t="s">
         <v>18</v>
       </c>
@@ -3104,15 +3021,15 @@
       <c r="R35" s="32"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
       <c r="W35" s="32"/>
       <c r="X35" s="32"/>
       <c r="Y35" s="32"/>
       <c r="Z35" s="32"/>
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="101"/>
+      <c r="A36" s="104"/>
       <c r="B36" s="31"/>
       <c r="C36" s="78"/>
       <c r="D36" s="37"/>
@@ -3140,7 +3057,7 @@
       <c r="Z36" s="32"/>
     </row>
     <row r="37" spans="1:26" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="101"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="31"/>
       <c r="C37" s="78"/>
       <c r="D37" s="37"/>
@@ -3196,11 +3113,11 @@
       <c r="Z38" s="19"/>
     </row>
     <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="101" t="s">
-        <v>41</v>
+      <c r="A39" s="104" t="s">
+        <v>40</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="38"/>
@@ -3228,7 +3145,7 @@
       <c r="Z39" s="40"/>
     </row>
     <row r="40" spans="1:26" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="101"/>
+      <c r="A40" s="104"/>
       <c r="B40" s="49" t="s">
         <v>10</v>
       </c>
@@ -3260,9 +3177,9 @@
       <c r="Z40" s="57"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="101"/>
+      <c r="A41" s="104"/>
       <c r="B41" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="74">
         <v>1</v>
@@ -3281,8 +3198,8 @@
       <c r="O41" s="41"/>
       <c r="P41" s="41"/>
       <c r="Q41" s="41"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="110"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="99"/>
       <c r="T41" s="41"/>
       <c r="U41" s="41"/>
       <c r="V41" s="41"/>
@@ -3292,16 +3209,16 @@
       <c r="Z41" s="41"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="101"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="74">
         <v>1</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="33"/>
-      <c r="F42" s="96"/>
+      <c r="F42" s="95"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
@@ -3313,8 +3230,8 @@
       <c r="O42" s="32"/>
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="110"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="99"/>
       <c r="T42" s="32"/>
       <c r="U42" s="32"/>
       <c r="V42" s="32"/>
@@ -3324,9 +3241,9 @@
       <c r="Z42" s="32"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="101"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="74">
         <v>1</v>
@@ -3345,8 +3262,8 @@
       <c r="O43" s="32"/>
       <c r="P43" s="32"/>
       <c r="Q43" s="32"/>
-      <c r="R43" s="110"/>
-      <c r="S43" s="110"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="99"/>
       <c r="T43" s="32"/>
       <c r="U43" s="32"/>
       <c r="V43" s="32"/>
@@ -3356,7 +3273,7 @@
       <c r="Z43" s="32"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="101"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="31" t="s">
         <v>12</v>
       </c>
@@ -3375,8 +3292,8 @@
       <c r="M44" s="32"/>
       <c r="N44" s="32"/>
       <c r="O44" s="32"/>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="110"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
@@ -3388,7 +3305,7 @@
       <c r="Z44" s="32"/>
     </row>
     <row r="45" spans="1:26" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="101"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="31" t="s">
         <v>18</v>
       </c>
@@ -3407,8 +3324,8 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="99"/>
       <c r="R45" s="32"/>
       <c r="S45" s="32"/>
       <c r="T45" s="32"/>
@@ -3420,7 +3337,7 @@
       <c r="Z45" s="32"/>
     </row>
     <row r="46" spans="1:26" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="101"/>
+      <c r="A46" s="104"/>
       <c r="B46" s="31"/>
       <c r="C46" s="67"/>
       <c r="D46" s="37"/>
@@ -3476,11 +3393,11 @@
       <c r="Z47" s="19"/>
     </row>
     <row r="48" spans="1:26" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="98" t="s">
-        <v>42</v>
+      <c r="A48" s="101" t="s">
+        <v>41</v>
       </c>
       <c r="B48" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="79"/>
       <c r="D48" s="38"/>
@@ -3508,7 +3425,7 @@
       <c r="Z48" s="40"/>
     </row>
     <row r="49" spans="1:26" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="98"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="49" t="s">
         <v>10</v>
       </c>
@@ -3540,15 +3457,15 @@
       <c r="Z49" s="57"/>
     </row>
     <row r="50" spans="1:26" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="99"/>
+      <c r="A50" s="102"/>
       <c r="B50" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" s="74">
         <v>1</v>
       </c>
       <c r="D50" s="47"/>
-      <c r="E50" s="110"/>
+      <c r="E50" s="99"/>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
@@ -3572,9 +3489,9 @@
       <c r="Z50" s="41"/>
     </row>
     <row r="51" spans="1:26" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="99"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="74">
         <v>1</v>
@@ -3597,14 +3514,14 @@
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
       <c r="U51" s="32"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="110"/>
+      <c r="V51" s="99"/>
+      <c r="W51" s="99"/>
       <c r="X51" s="32"/>
       <c r="Y51" s="32"/>
       <c r="Z51" s="32"/>
     </row>
     <row r="52" spans="1:26" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="99"/>
+      <c r="A52" s="102"/>
       <c r="B52" s="31" t="s">
         <v>12</v>
       </c>
@@ -3628,15 +3545,15 @@
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
-      <c r="U52" s="110"/>
-      <c r="V52" s="110"/>
-      <c r="W52" s="110"/>
+      <c r="U52" s="99"/>
+      <c r="V52" s="99"/>
+      <c r="W52" s="99"/>
       <c r="X52" s="32"/>
       <c r="Y52" s="32"/>
       <c r="Z52" s="32"/>
     </row>
     <row r="53" spans="1:26" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="99"/>
+      <c r="A53" s="102"/>
       <c r="B53" s="31" t="s">
         <v>18</v>
       </c>
@@ -3660,15 +3577,15 @@
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
-      <c r="U53" s="110"/>
-      <c r="V53" s="110"/>
+      <c r="U53" s="99"/>
+      <c r="V53" s="99"/>
       <c r="W53" s="31"/>
       <c r="X53" s="32"/>
       <c r="Y53" s="32"/>
       <c r="Z53" s="32"/>
     </row>
     <row r="54" spans="1:26" s="30" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="99"/>
+      <c r="A54" s="102"/>
       <c r="B54" s="31"/>
       <c r="C54" s="67"/>
       <c r="D54" s="37"/>
@@ -3724,11 +3641,11 @@
       <c r="Z55" s="19"/>
     </row>
     <row r="56" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="101" t="s">
-        <v>43</v>
+      <c r="A56" s="104" t="s">
+        <v>42</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="79"/>
       <c r="D56" s="38"/>
@@ -3756,7 +3673,7 @@
       <c r="Z56" s="40"/>
     </row>
     <row r="57" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="101"/>
+      <c r="A57" s="104"/>
       <c r="B57" s="49" t="s">
         <v>10</v>
       </c>
@@ -3788,15 +3705,15 @@
       <c r="Z57" s="57"/>
     </row>
     <row r="58" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="101"/>
+      <c r="A58" s="104"/>
       <c r="B58" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="74">
         <v>1</v>
       </c>
       <c r="D58" s="47"/>
-      <c r="E58" s="110"/>
+      <c r="E58" s="99"/>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
@@ -3820,15 +3737,15 @@
       <c r="Z58" s="41"/>
     </row>
     <row r="59" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="101"/>
+      <c r="A59" s="104"/>
       <c r="B59" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="74">
         <v>1</v>
       </c>
       <c r="D59" s="37"/>
-      <c r="E59" s="110"/>
+      <c r="E59" s="99"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -3852,7 +3769,7 @@
       <c r="Z59" s="32"/>
     </row>
     <row r="60" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="101"/>
+      <c r="A60" s="104"/>
       <c r="B60" s="31" t="s">
         <v>12</v>
       </c>
@@ -3860,9 +3777,9 @@
         <v>1</v>
       </c>
       <c r="D60" s="37"/>
-      <c r="E60" s="110"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
@@ -3884,7 +3801,7 @@
       <c r="Z60" s="32"/>
     </row>
     <row r="61" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="101"/>
+      <c r="A61" s="104"/>
       <c r="B61" s="31" t="s">
         <v>18</v>
       </c>
@@ -3894,9 +3811,9 @@
       <c r="D61" s="37"/>
       <c r="E61" s="33"/>
       <c r="F61" s="32"/>
-      <c r="G61" s="110"/>
-      <c r="H61" s="110"/>
-      <c r="I61" s="110"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
@@ -3916,7 +3833,7 @@
       <c r="Z61" s="32"/>
     </row>
     <row r="62" spans="1:26" s="48" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="101"/>
+      <c r="A62" s="104"/>
       <c r="B62" s="31"/>
       <c r="C62" s="67"/>
       <c r="D62" s="37"/>
@@ -3944,9 +3861,9 @@
       <c r="Z62" s="32"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="101"/>
+      <c r="A63" s="104"/>
       <c r="B63" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="73"/>
       <c r="D63" s="8"/>
@@ -3974,7 +3891,7 @@
       <c r="Z63" s="25"/>
     </row>
     <row r="64" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="101"/>
+      <c r="A64" s="104"/>
       <c r="B64" s="49" t="s">
         <v>10</v>
       </c>
@@ -4006,15 +3923,15 @@
       <c r="Z64" s="84"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="101"/>
+      <c r="A65" s="104"/>
       <c r="B65" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
       </c>
       <c r="D65" s="80"/>
-      <c r="E65" s="110"/>
+      <c r="E65" s="99"/>
       <c r="F65" s="49"/>
       <c r="G65" s="49"/>
       <c r="H65" s="49"/>
@@ -4038,18 +3955,18 @@
       <c r="Z65" s="49"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="101"/>
+      <c r="A66" s="104"/>
       <c r="B66" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="74">
         <v>1</v>
       </c>
       <c r="D66" s="80"/>
-      <c r="E66" s="110"/>
+      <c r="E66" s="99"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="101"/>
+      <c r="A67" s="104"/>
       <c r="B67" s="31" t="s">
         <v>12</v>
       </c>
@@ -4058,11 +3975,11 @@
       </c>
       <c r="D67" s="80"/>
       <c r="E67" s="49"/>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="101"/>
+      <c r="A68" s="104"/>
       <c r="B68" s="31" t="s">
         <v>18</v>
       </c>
@@ -4071,12 +3988,12 @@
       </c>
       <c r="D68" s="80"/>
       <c r="E68" s="49"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="110"/>
-      <c r="I68" s="110"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="99"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="101"/>
+      <c r="A69" s="104"/>
       <c r="B69" s="31"/>
       <c r="C69" s="78"/>
       <c r="D69" s="80"/>
@@ -4111,11 +4028,11 @@
       <c r="Z70" s="19"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="98" t="s">
-        <v>44</v>
+      <c r="A71" s="101" t="s">
+        <v>43</v>
       </c>
       <c r="B71" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" s="73"/>
       <c r="D71" s="8"/>
@@ -4143,7 +4060,7 @@
       <c r="Z71" s="25"/>
     </row>
     <row r="72" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="98"/>
+      <c r="A72" s="101"/>
       <c r="B72" s="49" t="s">
         <v>10</v>
       </c>
@@ -4175,9 +4092,9 @@
       <c r="Z72" s="84"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="98"/>
+      <c r="A73" s="101"/>
       <c r="B73" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" s="64">
         <v>1</v>
@@ -4202,24 +4119,24 @@
       <c r="U73" s="49"/>
       <c r="V73" s="49"/>
       <c r="W73" s="49"/>
-      <c r="X73" s="110"/>
+      <c r="X73" s="99"/>
       <c r="Y73" s="49"/>
       <c r="Z73" s="49"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="98"/>
+      <c r="A74" s="101"/>
       <c r="B74" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" s="74">
         <v>1</v>
       </c>
       <c r="D74" s="80"/>
       <c r="E74" s="49"/>
-      <c r="X74" s="110"/>
+      <c r="X74" s="99"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="98"/>
+      <c r="A75" s="101"/>
       <c r="B75" s="31" t="s">
         <v>12</v>
       </c>
@@ -4228,10 +4145,10 @@
       </c>
       <c r="D75" s="80"/>
       <c r="E75" s="49"/>
-      <c r="X75" s="110"/>
+      <c r="X75" s="99"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="98"/>
+      <c r="A76" s="101"/>
       <c r="B76" s="31" t="s">
         <v>18</v>
       </c>
@@ -4240,10 +4157,10 @@
       </c>
       <c r="D76" s="80"/>
       <c r="E76" s="49"/>
-      <c r="X76" s="110"/>
+      <c r="X76" s="99"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="98"/>
+      <c r="A77" s="101"/>
       <c r="B77" s="31"/>
       <c r="C77" s="78"/>
       <c r="D77" s="80"/>
@@ -4278,11 +4195,11 @@
       <c r="Z78" s="19"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="98" t="s">
-        <v>45</v>
+      <c r="A79" s="101" t="s">
+        <v>44</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C79" s="73"/>
       <c r="D79" s="8"/>
@@ -4310,7 +4227,7 @@
       <c r="Z79" s="25"/>
     </row>
     <row r="80" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="98"/>
+      <c r="A80" s="101"/>
       <c r="B80" s="49" t="s">
         <v>10</v>
       </c>
@@ -4342,9 +4259,9 @@
       <c r="Z80" s="84"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="98"/>
+      <c r="A81" s="101"/>
       <c r="B81" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81" s="64">
         <v>1</v>
@@ -4367,14 +4284,14 @@
       <c r="S81" s="49"/>
       <c r="T81" s="49"/>
       <c r="U81" s="49"/>
-      <c r="V81" s="110"/>
+      <c r="V81" s="99"/>
       <c r="W81" s="49"/>
       <c r="X81" s="49"/>
       <c r="Y81" s="49"/>
       <c r="Z81" s="49"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="98"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="31" t="s">
         <v>12</v>
       </c>
@@ -4389,10 +4306,10 @@
       <c r="I82" s="48"/>
       <c r="J82" s="48"/>
       <c r="K82" s="48"/>
-      <c r="V82" s="110"/>
+      <c r="V82" s="99"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="98"/>
+      <c r="A83" s="101"/>
       <c r="B83" s="31" t="s">
         <v>18</v>
       </c>
@@ -4407,10 +4324,10 @@
       <c r="I83" s="48"/>
       <c r="J83" s="48"/>
       <c r="K83" s="48"/>
-      <c r="V83" s="110"/>
+      <c r="V83" s="99"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="98"/>
+      <c r="A84" s="101"/>
       <c r="B84" s="31"/>
       <c r="C84" s="78"/>
       <c r="D84" s="80"/>
@@ -4442,16 +4359,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="110" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
@@ -4467,52 +4384,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="G1" s="104" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="G1" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
     </row>
     <row r="2" spans="1:13" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="89"/>
       <c r="B2" s="89"/>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="G2" s="88"/>
       <c r="H2" s="88"/>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="105"/>
+      <c r="L2" s="108"/>
       <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="86" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="C3" s="85" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="85" t="s">
         <v>18</v>
@@ -4521,33 +4438,33 @@
         <v>12</v>
       </c>
       <c r="G3" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="87" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>25</v>
       </c>
       <c r="I3" s="85" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="85" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="85" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="95" t="s">
-        <v>84</v>
+      <c r="A4" s="78">
+        <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="13">
         <v>0</v>
@@ -4571,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="15">
-        <f>SUM(C39:E39)</f>
+        <f>SUM(C40:E40)</f>
         <v>156</v>
       </c>
       <c r="L4" s="15">
@@ -4581,11 +4498,11 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="95" t="s">
-        <v>85</v>
+      <c r="A5" s="78">
+        <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="24">
         <v>0</v>
@@ -4620,11 +4537,11 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="95" t="s">
-        <v>87</v>
+      <c r="A6" s="78">
+        <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="24">
         <v>0</v>
@@ -4657,11 +4574,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="95" t="s">
-        <v>86</v>
+      <c r="A7" s="78">
+        <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="24">
         <v>0</v>
@@ -4694,11 +4611,11 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="95" t="s">
-        <v>102</v>
+      <c r="A8" s="78">
+        <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="24">
         <v>0</v>
@@ -4732,11 +4649,11 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="95" t="s">
-        <v>103</v>
+      <c r="A9" s="78">
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="24">
         <v>0</v>
@@ -4770,11 +4687,11 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="95" t="s">
-        <v>104</v>
+      <c r="A10" s="78">
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="24">
         <v>0</v>
@@ -4807,11 +4724,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="95" t="s">
-        <v>105</v>
+      <c r="A11" s="78">
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="24">
         <v>0</v>
@@ -4844,11 +4761,11 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="95" t="s">
-        <v>88</v>
+      <c r="A12" s="78">
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C12" s="24">
         <v>0</v>
@@ -4881,11 +4798,11 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="95" t="s">
-        <v>106</v>
+      <c r="A13" s="78">
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="24">
         <v>0</v>
@@ -4918,11 +4835,11 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="95" t="s">
-        <v>82</v>
+      <c r="A14" s="78">
+        <v>11</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="24">
         <v>0</v>
@@ -4955,11 +4872,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="95" t="s">
-        <v>89</v>
+      <c r="A15" s="78">
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="24">
         <v>0</v>
@@ -4992,11 +4909,11 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="95" t="s">
-        <v>90</v>
+      <c r="A16" s="78">
+        <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="24">
         <v>3</v>
@@ -5029,11 +4946,11 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="95" t="s">
-        <v>91</v>
+      <c r="A17" s="78">
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="24">
         <v>0</v>
@@ -5066,11 +4983,11 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="95" t="s">
-        <v>92</v>
+      <c r="A18" s="78">
+        <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="24">
         <v>0</v>
@@ -5103,11 +5020,11 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="95" t="s">
-        <v>93</v>
+      <c r="A19" s="78">
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="24">
         <v>0</v>
@@ -5140,11 +5057,11 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="95" t="s">
-        <v>94</v>
+      <c r="A20" s="78">
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="24">
         <v>0</v>
@@ -5178,11 +5095,11 @@
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="95" t="s">
-        <v>95</v>
+      <c r="A21" s="78">
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="24">
         <v>0</v>
@@ -5215,11 +5132,11 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="95" t="s">
-        <v>96</v>
+      <c r="A22" s="78">
+        <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="24">
         <v>0</v>
@@ -5252,11 +5169,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="95" t="s">
-        <v>97</v>
+      <c r="A23" s="78">
+        <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="24">
         <v>0</v>
@@ -5289,11 +5206,11 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="95" t="s">
-        <v>98</v>
+      <c r="A24" s="78">
+        <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="24">
         <v>0</v>
@@ -5326,11 +5243,11 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="95" t="s">
-        <v>99</v>
+      <c r="A25" s="78">
+        <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="24">
         <v>0</v>
@@ -5363,11 +5280,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="95">
-        <v>8</v>
+      <c r="A26" s="78">
+        <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="24">
         <v>0</v>
@@ -5401,11 +5318,11 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="95" t="s">
-        <v>100</v>
+      <c r="A27" s="78">
+        <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="24">
         <v>0</v>
@@ -5424,11 +5341,11 @@
       <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="95" t="s">
-        <v>101</v>
+      <c r="A28" s="78">
+        <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="24">
         <v>0</v>
@@ -5447,8 +5364,8 @@
       <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="95">
-        <v>5</v>
+      <c r="A29" s="78">
+        <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>73</v>
@@ -5470,8 +5387,8 @@
       <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="95">
-        <v>6</v>
+      <c r="A30" s="78">
+        <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>74</v>
@@ -5493,11 +5410,11 @@
       <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="95">
-        <v>7</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>75</v>
+      <c r="A31" s="78">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="24">
         <v>3</v>
@@ -5516,21 +5433,15 @@
       <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:13" s="48" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="95" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="24">
-        <v>0</v>
-      </c>
-      <c r="D32" s="24">
-        <v>2</v>
-      </c>
-      <c r="E32" s="24">
-        <v>1</v>
-      </c>
+      <c r="A32" s="78">
+        <v>29</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
       <c r="G32" s="18"/>
       <c r="H32" s="17"/>
       <c r="I32" s="18"/>
@@ -5539,20 +5450,20 @@
       <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:13" s="48" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="95" t="s">
-        <v>108</v>
+      <c r="A33" s="78">
+        <v>30</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="24">
         <v>0</v>
       </c>
       <c r="D33" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="17"/>
@@ -5562,20 +5473,20 @@
       <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:13" s="48" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="95" t="s">
-        <v>109</v>
+      <c r="A34" s="78">
+        <v>31</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="24">
         <v>0</v>
       </c>
       <c r="D34" s="24">
+        <v>3</v>
+      </c>
+      <c r="E34" s="24">
         <v>2</v>
-      </c>
-      <c r="E34" s="24">
-        <v>1</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="17"/>
@@ -5585,20 +5496,20 @@
       <c r="L34" s="18"/>
     </row>
     <row r="35" spans="1:13" s="48" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="95" t="s">
-        <v>110</v>
+      <c r="A35" s="78">
+        <v>32</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35" s="24">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E35" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="17"/>
@@ -5608,20 +5519,20 @@
       <c r="L35" s="18"/>
     </row>
     <row r="36" spans="1:13" s="48" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="95" t="s">
-        <v>111</v>
+      <c r="A36" s="78">
+        <v>33</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" s="24">
         <v>1.5</v>
       </c>
       <c r="E36" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="17"/>
@@ -5630,68 +5541,83 @@
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
     </row>
-    <row r="37" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="26">
+    <row r="37" spans="1:13" s="48" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A37" s="78">
+        <v>34</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="24">
         <v>0</v>
       </c>
-      <c r="D37" s="26">
-        <v>2</v>
-      </c>
-      <c r="E37" s="26">
-        <v>1</v>
-      </c>
-      <c r="G37" s="16"/>
+      <c r="D37" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E37" s="24">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
     </row>
     <row r="38" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="25"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="A38" s="78">
+        <v>35</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="26">
+        <v>0</v>
+      </c>
+      <c r="D38" s="26">
+        <v>2</v>
+      </c>
+      <c r="E38" s="26">
+        <v>1</v>
+      </c>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
-      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="29">
-        <f>SUM(C4:C37)</f>
-        <v>15</v>
-      </c>
-      <c r="D39" s="29">
-        <f>SUM(D4:D37)</f>
-        <v>89</v>
-      </c>
-      <c r="E39" s="29">
-        <f>SUM(E4:E37)</f>
-        <v>52</v>
-      </c>
+      <c r="A39" s="73"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
+      <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="29">
+        <f>SUM(C4:C38)</f>
+        <v>15</v>
+      </c>
+      <c r="D40" s="29">
+        <f>SUM(D4:D38)</f>
+        <v>89</v>
+      </c>
+      <c r="E40" s="29">
+        <f>SUM(E4:E38)</f>
+        <v>52</v>
+      </c>
       <c r="G40" s="16"/>
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
@@ -5730,14 +5656,15 @@
       <c r="J44" s="16"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
-      <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="G45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
+      <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="G46" s="18"/>
@@ -5760,12 +5687,12 @@
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
     </row>
-    <row r="52" spans="7:12" ht="13" x14ac:dyDescent="0.15">
-      <c r="G52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
+    <row r="49" spans="7:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="G49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
     </row>
     <row r="53" spans="7:12" ht="13" x14ac:dyDescent="0.15">
       <c r="G53" s="18"/>
@@ -5822,6 +5749,13 @@
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
+    </row>
+    <row r="61" spans="7:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="G61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
